--- a/tyotaPricing.xlsx
+++ b/tyotaPricing.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="TyotaPricing" sheetId="1" r:id="rId1"/>
-    <sheet name="bug" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>Project Name: Toyota</t>
   </si>
@@ -88,40 +87,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">To verify if the dealer is able to create a new agreement.
-And to validate the Vin number by selecting Ew ty 
-TW393/Up to 4 Years or 100,000 Kms
-</t>
-  </si>
-  <si>
     <t>User is already on create agreement page.</t>
   </si>
   <si>
-    <t>EW plan Selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan should be selected with EWS Retail </t>
-  </si>
-  <si>
     <t xml:space="preserve">High  </t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>to verify if prices of the selected plan  equal to EWS Retail master or not.</t>
-  </si>
-  <si>
     <t xml:space="preserve">appearing Prices same as master </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Reflecting  Prices same as master </t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan ty 
@@ -156,12 +131,6 @@
   <si>
     <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  nty 
 TW546/Up to 5 Years or 200,000 Kms
-TW399/Up to 4 Years or 120,000 Kms
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  nty 
-TW546/Up to 5 Years or 200,000 Kms
 </t>
   </si>
   <si>
@@ -170,10 +139,6 @@
 </t>
   </si>
   <si>
-    <t>MBJJB8EMX01588629
-selecting the EW TW393/Up to 4 Years or 100,000 Kms plan</t>
-  </si>
-  <si>
     <t xml:space="preserve">MBJJB8EMX01588629
 TW399/Up to 4 Years or 120,000 Kms
 </t>
@@ -189,22 +154,201 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">MBJJB8EMX01588629 
+    <t>Ranjeet</t>
+  </si>
+  <si>
+    <t>Toyota(Revised Pricing testing)</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>No. of test Written</t>
+  </si>
+  <si>
+    <t>No. of test executed</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>Suggestion</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>test Case ID_1</t>
+  </si>
+  <si>
+    <t>test Case ID_2</t>
+  </si>
+  <si>
+    <t>test Case ID_3</t>
+  </si>
+  <si>
+    <t>test Case ID_4</t>
+  </si>
+  <si>
+    <t>test Case ID_5</t>
+  </si>
+  <si>
+    <t>test Case ID_6</t>
+  </si>
+  <si>
+    <t>test Case ID_7</t>
+  </si>
+  <si>
+    <t>test Case ID_8</t>
+  </si>
+  <si>
+    <t>Lead Dev: Ranjeet/Vaishali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
 TW435/upto 5 Years Or 100000 Kms
 </t>
   </si>
   <si>
-    <t xml:space="preserve">MBJJB8EMX01588629
+    <t xml:space="preserve">MBJJB8EM501586464
 TW435/upto 5 Years Or 100000 Kms
 </t>
   </si>
   <si>
-    <t>MBJJB8EMX01588629
-TW393/Up to 4 Years or 100,000 Kms</t>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW435/upto 5 Years Or 100000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW429/Up to 5 Years or 180,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW429/Up to 5 Years or 180,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW429/Up to 5 Years or 180,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW417/Up to 5 Years or 140,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW417/Up to 5 Years or 140,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW417/Up to 5 Years or 140,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW417/Up to 5 Years or 140,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW399/Up to 4 Years or 120,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW399/Up to 4 Years or 120,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW399/Up to 4 Years or 120,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW399/Up to 4 Years or 120,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464 
+TW393/Up to 4 Years or 100,000 Kms
+</t>
   </si>
   <si>
     <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan 
+TW393/Up to 4 Years or 100,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW393/Up to 4 Years or 100,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW399/Up to 4 Years or 120,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  nty 
+TW399/Up to 4 Years or 120,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW417/Up to 5 Years or 140,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW417/Up to 5 Years or 140,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW417/Up to 5 Years or 140,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+y
+TW429/Up to 5 Years or 180,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
 TW435/upto 5 Years Or 100000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW546/Up to 5 Years or 200,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
+TW546/Up to 5 Years or 200,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW546/Up to 5 Years or 200,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW546/Up to 5 Years or 200,000 Kms
 </t>
   </si>
   <si>
@@ -213,193 +357,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">MBJJB8EMX01588629 
+    <t xml:space="preserve">to verify if prices of the selected plan  equal to EWS Retail master or not  by Selecting EW Plan  
 TW547/Up to 5 Years or 220,000 Kms
 </t>
   </si>
   <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW547/Up to 5 Years or 220,000 Kms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBJJB8EM501586464
+TW547/Up to 5 Years or 220,000 Kms
+</t>
+  </si>
+  <si>
+    <t>test Case ID_9</t>
+  </si>
+  <si>
+    <t>test Case ID_10</t>
+  </si>
+  <si>
+    <t>test Case ID_11</t>
+  </si>
+  <si>
+    <t>test Case ID_12</t>
+  </si>
+  <si>
+    <t>test Case ID_13</t>
+  </si>
+  <si>
     <t xml:space="preserve">MBJJB8EMX01588629
-TW547/Up to 5 Years or 220,000 Kms
-</t>
-  </si>
-  <si>
-    <t>Bug Report</t>
-  </si>
-  <si>
-    <t>Project:-</t>
-  </si>
-  <si>
-    <t>Lead_Devp. :-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created_By :- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power_Task_I.D. :- </t>
-  </si>
-  <si>
-    <t>Created Date:</t>
-  </si>
-  <si>
-    <t>Power ID</t>
-  </si>
-  <si>
-    <t>Test Case ID/Module</t>
-  </si>
-  <si>
-    <t>Task ID</t>
-  </si>
-  <si>
-    <t>Bug ID</t>
-  </si>
-  <si>
-    <t>Bug Summary</t>
-  </si>
-  <si>
-    <t>Assigned to</t>
-  </si>
-  <si>
-    <t>Retesting Power ID</t>
-  </si>
-  <si>
-    <t>Status -15.10.2020</t>
-  </si>
-  <si>
-    <t>Testers Comments</t>
-  </si>
-  <si>
-    <t>Open_Date</t>
-  </si>
-  <si>
-    <t>Close_Date</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Ranjeet</t>
-  </si>
-  <si>
-    <t>29.10.2020</t>
-  </si>
-  <si>
-    <t>Bug ID_1</t>
-  </si>
-  <si>
-    <r>
-      <t>MBJJB8EMX01588629
-s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">electing the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+selecting the 
 TW417/Up to 5 Years or 140,000 Kms
 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MBJJB8EMX01588629
-selecting the EW ty 
-TW393/Up to 4 Years or 100,000 Kms
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer price is not matching with EWS Retail Master </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vin=MBJJB8EMX01588629
-1.TW393/Up to 4 Years or 100,000 Kms
-</t>
-  </si>
-  <si>
-    <t>Enter Vin Number
-And Selected plan of Extended Warranty TW393/Up to 4 Years or 100,000 Kms</t>
-  </si>
-  <si>
-    <t>Dealer is on Agreement Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1vin=MBJJB8EMX01588629
-2.TW393/Up to 4 Years or 100,000 Kms
-</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Toyota(Revised Pricing testing)</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>No. of test Written</t>
-  </si>
-  <si>
-    <t>No. of test executed</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail </t>
-  </si>
-  <si>
-    <t>Suggestion</t>
-  </si>
-  <si>
-    <t>Agreement</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>test Case ID_1</t>
-  </si>
-  <si>
-    <t>test Case ID_2</t>
-  </si>
-  <si>
-    <t>test Case ID_3</t>
-  </si>
-  <si>
-    <t>test Case ID_4</t>
-  </si>
-  <si>
-    <t>test Case ID_5</t>
-  </si>
-  <si>
-    <t>test Case ID_6</t>
-  </si>
-  <si>
-    <t>test Case ID_7</t>
-  </si>
-  <si>
-    <t>test Case ID_8</t>
-  </si>
-  <si>
-    <t>Lead Dev: Ranjeet/Vaishali</t>
+  </si>
+  <si>
+    <t>`13</t>
   </si>
 </sst>
 </file>
@@ -410,7 +404,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,29 +451,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,18 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -627,58 +588,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,50 +631,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,55 +926,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1069,15 +985,15 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="25">
         <v>44133</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1086,13 +1002,13 @@
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,273 +1054,430 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>90</v>
+    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>73</v>
+      <c r="D6" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>71</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>23</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>23</v>
+      </c>
       <c r="H12" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>97</v>
+        <v>21</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>23</v>
+      </c>
       <c r="H13" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f ca="1">B22:B27</f>
+        <v>21</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f ca="1">B19:B24</f>
         <v>0</v>
       </c>
     </row>
@@ -1425,309 +1498,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="13">
-        <v>12805</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="44">
-        <v>12805</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="44">
-        <v>12805</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="K3:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="A1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="A2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>87</v>
+      <c r="A3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="24">
-        <v>8</v>
-      </c>
-      <c r="C4" s="24">
-        <v>8</v>
-      </c>
-      <c r="D4" s="25">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27"/>
+      <c r="A4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="15">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="28">
-        <v>8</v>
-      </c>
-      <c r="C5" s="24">
-        <v>8</v>
-      </c>
-      <c r="D5" s="25">
-        <v>7</v>
-      </c>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27"/>
+      <c r="A5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="19">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <v>13</v>
+      </c>
+      <c r="D5" s="16">
+        <v>13</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
